--- a/data/trans_dic/P22_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P22_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con grado de felicidad &lt;=7 en la última semana</t>
+          <t>Población con grado de felicidad &lt;=7 en la última semana (tasa de respuesta: 99,63%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>25,42%</t>
+          <t>25,8%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>27,46%</t>
+          <t>28,75%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>31,05%</t>
+          <t>33,32%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>30,26%</t>
+          <t>42,34%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>39,31%</t>
+          <t>30,25%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>41,14%</t>
+          <t>41,12%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>41,2%</t>
+          <t>39,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>39,94%</t>
+          <t>40,7%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>32,12%</t>
+          <t>42,09%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>34,21%</t>
+          <t>40,09%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>36,16%</t>
+          <t>39,95%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>34,82%</t>
+          <t>33,55%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>32,51%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>34,66%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>37,74%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>41,21%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>34,81%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>37,59%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,37; 33,58</t>
+          <t>19,05; 33,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,28; 35,76</t>
+          <t>21,84; 38,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,49; 39,62</t>
+          <t>24,43; 42,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,45; 40,3</t>
+          <t>32,69; 53,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,66; 47,52</t>
+          <t>21,64; 39,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,55; 47,9</t>
+          <t>31,16; 50,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>33,93; 48,98</t>
+          <t>32,36; 48,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,45; 49,37</t>
+          <t>34,13; 48,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,69; 37,57</t>
+          <t>34,32; 50,4</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>29,12; 39,97</t>
+          <t>32,1; 49,27</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>29,71; 42,03</t>
+          <t>31,03; 49,51</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>28,79; 41,11</t>
+          <t>25,32; 42,03</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>27,33; 37,42</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>29,03; 40,43</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>32,28; 43,76</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>34,99; 49,07</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>28,23; 41,98</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>30,79; 44,46</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>38,64%</t>
+          <t>39,03%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>31,79%</t>
+          <t>32,22%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>30,7%</t>
+          <t>31,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>30,13%</t>
+          <t>32,19%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>32,9%</t>
+          <t>30,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,42%</t>
+          <t>40,64%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>33,75%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>34,95%</t>
+          <t>35,19%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>35,84%</t>
+          <t>30,65%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>33,04%</t>
+          <t>34,01%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>30,39%</t>
+          <t>34,94%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>32,47%</t>
+          <t>32,26%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>36,46%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>33,62%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>30,86%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>33,03%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>32,46%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>36,59%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,26; 47,87</t>
+          <t>29,98; 49,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,39; 41,65</t>
+          <t>25,16; 41,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,57; 39,7</t>
+          <t>23,55; 41,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,7; 40,64</t>
+          <t>22,33; 43,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,47; 40,36</t>
+          <t>21,58; 38,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,98; 40,85</t>
+          <t>30,66; 50,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,76; 36,99</t>
+          <t>26,48; 41,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,96; 42,81</t>
+          <t>29,02; 41,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>30,02; 41,99</t>
+          <t>24,07; 36,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>27,95; 38,13</t>
+          <t>27,17; 41,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25,22; 36,14</t>
+          <t>27,48; 43,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,66; 38,65</t>
+          <t>25,12; 39,51</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>30,61; 42,88</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>28,95; 39,6</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>25,77; 37,01</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>26,63; 40,72</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>26,74; 38,92</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>30,75; 42,52</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>31,45%</t>
+          <t>33,54%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>30,81%</t>
+          <t>30,71%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>31,62%</t>
+          <t>31,25%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>32,53%</t>
+          <t>26,53%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>38,23%</t>
+          <t>32,52%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>34,76%</t>
+          <t>38,26%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>37,03%</t>
+          <t>38,39%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>35,11%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>37,27%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>38,39%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>33,94%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>34,89%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>32,84%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>34,39%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>33,2%</t>
+          <t>33,89%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>36,03%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>32,97%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>34,33%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>32,63%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>33,19%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>36,19%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>24,11; 38,59</t>
+          <t>26,5; 40,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,92; 37,71</t>
+          <t>24,01; 37,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,2; 39,68</t>
+          <t>25,1; 38,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26,33; 38,9</t>
+          <t>20,66; 32,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,45; 43,89</t>
+          <t>26,67; 39,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,76; 40,01</t>
+          <t>31,2; 44,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>32,52; 42,05</t>
+          <t>33,1; 44,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>28,17; 39,8</t>
+          <t>30,22; 39,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>29,96; 39,1</t>
+          <t>32,57; 42,63</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,92; 37,23</t>
+          <t>33,19; 44,16</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>30,07; 38,83</t>
+          <t>28,47; 40,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>28,89; 37,65</t>
+          <t>28,05; 40,37</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>31,54; 40,59</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>28,91; 37,13</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>30,65; 39,76</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>28,4; 37,09</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>28,66; 37,61</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>31,42; 41,01</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>41,69%</t>
+          <t>42,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>39,33%</t>
+          <t>39,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>37,03%</t>
+          <t>37,17%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>35,97%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>42,18%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>49,45%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>50,92%</t>
+          <t>43,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>48,32%</t>
+          <t>50,38%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>49,78%</t>
+          <t>50,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>45,71%</t>
+          <t>48,71%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>45,24%</t>
+          <t>42,33%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>42,77%</t>
+          <t>49,79%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>46,48%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>46,65%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>45,23%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>43,05%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>39,16%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>45,78%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>44,9%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>35,68; 48,41</t>
+          <t>36,73; 49,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,44; 44,77</t>
+          <t>33,82; 45,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,59; 43,36</t>
+          <t>31,79; 43,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>34,87; 49,39</t>
+          <t>29,86; 42,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,66; 54,67</t>
+          <t>34,8; 49,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,48; 56,08</t>
+          <t>37,33; 50,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>43,61; 53,25</t>
+          <t>44,84; 55,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>43,14; 56,25</t>
+          <t>46,21; 56,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>41,37; 50,12</t>
+          <t>43,28; 53,53</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>41,43; 49,2</t>
+          <t>36,45; 48,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>38,99; 46,85</t>
+          <t>42,89; 56,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>40,72; 50,54</t>
+          <t>40,01; 52,98</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>41,75; 50,78</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>41,14; 49,2</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>39,36; 47,12</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>34,75; 43,38</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>40,73; 51,06</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>39,46; 49,16</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>35,98%</t>
+          <t>36,06%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>35,27%</t>
+          <t>35,65%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>37,53%</t>
+          <t>38,01%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>41,5%</t>
+          <t>38,26%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>52,41%</t>
+          <t>41,49%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>49,13%</t>
+          <t>40,06%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>51,3%</t>
+          <t>52,11%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>49,27%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>51,74%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>45,95%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>44,28%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>44,44%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>42,17%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>44,54%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>44,08%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>44,3%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>42,42%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>45,02%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>42,21%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
           <t>42,95%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>42,1%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>29,06; 43,85</t>
+          <t>29,66; 44,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>29,75; 41,77</t>
+          <t>29,32; 41,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31,31; 43,95</t>
+          <t>32,29; 45,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33,72; 49,75</t>
+          <t>31,84; 45,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>45,0; 59,47</t>
+          <t>34,21; 49,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>43,3; 55,44</t>
+          <t>32,44; 46,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>45,18; 57,76</t>
+          <t>46,02; 59,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>38,02; 50,58</t>
+          <t>42,96; 54,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>39,86; 49,7</t>
+          <t>45,72; 57,75</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>37,72; 46,94</t>
+          <t>38,85; 53,95</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>40,02; 48,99</t>
+          <t>38,08; 51,08</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>37,85; 48,5</t>
+          <t>37,43; 50,37</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>39,27; 49,35</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>38,24; 46,97</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>40,85; 49,71</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>37,62; 47,69</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>37,92; 47,9</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>36,74; 47,41</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>37,53%</t>
+          <t>37,3%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>43,09%</t>
+          <t>42,11%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>41,5%</t>
+          <t>41,93%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>32,25%</t>
+          <t>39,06%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>53,64%</t>
+          <t>32,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>43,36%</t>
+          <t>33,48%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>46,19%</t>
+          <t>53,19%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>48,38%</t>
+          <t>44,11%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>46,73%</t>
+          <t>48,53%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>43,24%</t>
+          <t>51,0%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>44,18%</t>
+          <t>48,39%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
+          <t>45,85%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>46,38%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>43,22%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>45,69%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>45,67%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
           <t>41,51%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>40,62%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>29,77; 46,46</t>
+          <t>30,1; 45,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>34,86; 52,1</t>
+          <t>34,22; 50,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>33,52; 49,32</t>
+          <t>33,92; 49,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,68; 40,87</t>
+          <t>29,93; 47,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>46,07; 60,4</t>
+          <t>24,41; 40,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,74; 49,77</t>
+          <t>25,9; 41,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>36,59; 53,35</t>
+          <t>45,45; 60,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>38,88; 58,34</t>
+          <t>37,74; 51,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>41,21; 52,01</t>
+          <t>41,25; 55,35</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>38,46; 49,01</t>
+          <t>42,03; 60,07</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>37,86; 49,46</t>
+          <t>38,79; 57,76</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>34,94; 48,41</t>
+          <t>37,73; 53,97</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>40,66; 51,78</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>38,21; 48,41</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>40,52; 51,21</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>39,61; 52,55</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>35,42; 48,39</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>35,11; 46,24</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>35,2%</t>
+          <t>35,97%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>34,59%</t>
+          <t>34,74%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>34,68%</t>
+          <t>35,17%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>35,18%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>34,95%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>44,69%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>42,25%</t>
+          <t>39,59%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>42,4%</t>
+          <t>44,94%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>42,23%</t>
+          <t>42,53%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>40,09%</t>
+          <t>43,26%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>38,49%</t>
+          <t>42,29%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>38,63%</t>
+          <t>42,24%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
+          <t>39,86%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>40,59%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>38,7%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>39,31%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>38,81%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
           <t>38,6%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>39,73%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>32,4; 38,45</t>
+          <t>32,95; 39,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>31,82; 37,62</t>
+          <t>31,96; 37,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>31,67; 37,84</t>
+          <t>32,13; 37,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>31,9; 38,05</t>
+          <t>31,83; 38,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>41,73; 47,31</t>
+          <t>31,74; 37,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>39,88; 44,72</t>
+          <t>35,89; 42,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>40,01; 45,17</t>
+          <t>42,03; 47,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>38,98; 45,38</t>
+          <t>40,16; 45,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>37,98; 42,16</t>
+          <t>40,62; 45,62</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>36,71; 40,38</t>
+          <t>39,37; 45,4</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>36,61; 40,76</t>
+          <t>39,31; 45,9</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>36,27; 40,84</t>
+          <t>36,68; 42,81</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>38,52; 42,69</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>36,8; 40,67</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>37,37; 41,38</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>36,28; 41,18</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>36,16; 40,88</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>37,22; 41,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con grado de felicidad &lt;=7 en la última semana (tasa de respuesta: 99,63%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>129534</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>150728</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>168468</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>199505</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>12726</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>18120</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>186072</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>208483</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>216303</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>191311</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>14940</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>12936</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>315606</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>359211</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>384771</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>390816</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>27666</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>31056</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>95664; 167350</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>114458; 199840</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>123553; 216609</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>154043; 253710</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9106; 16584</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>13728; 22422</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>151723; 225674</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>174847; 249607</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>176382; 259056</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>153191; 235131</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>11604; 18515</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9760; 16204</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>265366; 363303</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>300861; 419080</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>329107; 446169</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>331833; 465404</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>22434; 33363</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>25436; 36731</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>213142</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>182184</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>184550</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>186650</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>15020</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>19917</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>174284</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>178771</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>158552</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>171763</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>16493</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>14843</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>387425</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>360955</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>343101</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>358413</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>31513</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>34759</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>163718; 269641</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>142268; 233714</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>139993; 245828</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>129468; 253526</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>10766; 19171</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>15025; 24808</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>136749; 213872</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>147404; 211405</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>124524; 189242</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>137253; 210793</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>12973; 20333</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>11558; 18178</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>325253; 455642</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>310801; 425157</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>286525; 411449</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>288987; 441823</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>25964; 37780</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>29213; 40393</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>225888</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>208315</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>211788</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>179414</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>19582</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>23250</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>273523</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>252215</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>265351</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>275399</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>18297</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>18589</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>499411</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>460531</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>477139</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>454813</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>37880</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>41839</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>178451; 270613</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>162882; 253050</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>170138; 263730</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>139752; 221476</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>16055; 23928</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18957; 27219</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>235830; 313697</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>217109; 287021</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>231882; 303534</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>238159; 316853</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15351; 21784</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>15387; 22146</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>437105; 562608</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>403815; 518681</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>425977; 552563</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>395875; 516904</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>32710; 42924</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>36326; 47419</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>302.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>275467</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>254110</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>235495</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>235914</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>24452</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>24736</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>342399</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>342596</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>320355</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>278683</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>25885</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>24757</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>617866</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>596707</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>555851</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>514597</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>50337</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>49493</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>236845; 321634</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>218469; 295374</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>201376; 275175</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>195831; 276516</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>20172; 28933</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>21261; 29017</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>304744; 380371</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>311197; 379684</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>284625; 352042</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>239967; 318259</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>22299; 29313</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>21308; 28217</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>552995; 672616</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>542806; 649072</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>508175; 608384</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>456697; 570109</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>44788; 56145</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>43492; 54183</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>171780</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>178975</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>186332</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>187116</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>18460</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>18072</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>262076</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>244950</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>264721</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>237518</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>21495</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>20447</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>433856</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>423925</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>451053</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>424634</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>39956</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>38519</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>141311; 210525</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>147188; 210250</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>158280; 220941</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>155709; 223471</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>15220; 21905</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>14636; 21150</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>231461; 296908</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>213616; 273369</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>233914; 295484</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>200839; 278897</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>18485; 24795</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>17358; 23361</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>384574; 483351</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>382132; 469309</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>409242; 498051</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>378452; 479704</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>35281; 44558</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>33618; 43382</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>190235</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>221330</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>208852</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>221263</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>14991</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>15178</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>361491</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>289143</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>318948</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>358294</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>30347</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>28395</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>551726</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>510473</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>527800</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>579556</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>45338</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>43572</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>153489; 229637</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>179833; 264546</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>168952; 247408</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>169531; 269871</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>11351; 18957</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>11743; 18703</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>308871; 408719</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>247365; 338311</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>271122; 363782</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>295329; 422059</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>24322; 36219</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>23363; 33423</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>483659; 615996</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>451286; 571728</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>468075; 591643</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>502615; 666817</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>38688; 52848</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>37656; 49593</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>413.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>469.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>461.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>366.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>327.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>367.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>601.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>697.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>719.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>525.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>454.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>452.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>1014.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>1166.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>1180.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>891.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>781.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>819.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1206047</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1195643</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1195485</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1209862</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>105232</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>119272</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1599844</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1516158</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1544229</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1512968</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>127458</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>119966</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>2805891</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>2711801</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>2739715</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>2722830</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>232690</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>239238</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1104790; 1313208</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1100080; 1295801</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1092462; 1291659</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1094343; 1321498</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>95586; 114297</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>108127; 129143</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1496103; 1698402</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1431722; 1606630</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1449928; 1628585</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1408519; 1624183</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>118638; 138511</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>110400; 128843</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>2662691; 2950955</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>2578564; 2849253</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>2604486; 2883639</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>2545504; 2888993</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>217998; 246446</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>224117; 252599</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
